--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnc-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnc-Egfr.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.991283666666667</v>
+        <v>6.449754000000001</v>
       </c>
       <c r="H2">
-        <v>5.973851</v>
+        <v>19.349262</v>
       </c>
       <c r="I2">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="J2">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N2">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O2">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P2">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q2">
-        <v>5.379162098084667</v>
+        <v>4.798358985840001</v>
       </c>
       <c r="R2">
-        <v>48.41245888276199</v>
+        <v>43.18523087256001</v>
       </c>
       <c r="S2">
-        <v>0.0002533902431158544</v>
+        <v>0.0002178070998358664</v>
       </c>
       <c r="T2">
-        <v>0.0002533902431158544</v>
+        <v>0.0002178070998358664</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.991283666666667</v>
+        <v>6.449754000000001</v>
       </c>
       <c r="H3">
-        <v>5.973851</v>
+        <v>19.349262</v>
       </c>
       <c r="I3">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="J3">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N3">
         <v>264.449356</v>
       </c>
       <c r="O3">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P3">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q3">
-        <v>175.5312277544396</v>
+        <v>568.5444305528081</v>
       </c>
       <c r="R3">
-        <v>1579.781049789956</v>
+        <v>5116.899874975272</v>
       </c>
       <c r="S3">
-        <v>0.008268555522979852</v>
+        <v>0.02580736745874445</v>
       </c>
       <c r="T3">
-        <v>0.008268555522979851</v>
+        <v>0.02580736745874445</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.991283666666667</v>
+        <v>6.449754000000001</v>
       </c>
       <c r="H4">
-        <v>5.973851</v>
+        <v>19.349262</v>
       </c>
       <c r="I4">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="J4">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N4">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O4">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P4">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q4">
-        <v>60.79751912593522</v>
+        <v>192.000142624564</v>
       </c>
       <c r="R4">
-        <v>547.177672133417</v>
+        <v>1728.001283621076</v>
       </c>
       <c r="S4">
-        <v>0.002863921531133427</v>
+        <v>0.008715270023884669</v>
       </c>
       <c r="T4">
-        <v>0.002863921531133426</v>
+        <v>0.008715270023884669</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.991283666666667</v>
+        <v>6.449754000000001</v>
       </c>
       <c r="H5">
-        <v>5.973851</v>
+        <v>19.349262</v>
       </c>
       <c r="I5">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="J5">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N5">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O5">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P5">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q5">
-        <v>0.47916258871</v>
+        <v>1.290159342046</v>
       </c>
       <c r="R5">
-        <v>4.31246329839</v>
+        <v>11.611434078414</v>
       </c>
       <c r="S5">
-        <v>2.257138242561621E-05</v>
+        <v>5.856290982947288E-05</v>
       </c>
       <c r="T5">
-        <v>2.257138242561621E-05</v>
+        <v>5.856290982947289E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>369.083199</v>
       </c>
       <c r="I6">
-        <v>0.7048490234326754</v>
+        <v>0.663783921437469</v>
       </c>
       <c r="J6">
-        <v>0.7048490234326754</v>
+        <v>0.6637839214374691</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N6">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O6">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P6">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q6">
-        <v>332.341458650482</v>
+        <v>91.52771224268</v>
       </c>
       <c r="R6">
-        <v>2991.073127854338</v>
+        <v>823.7494101841199</v>
       </c>
       <c r="S6">
-        <v>0.01565524174014171</v>
+        <v>0.004154625699540061</v>
       </c>
       <c r="T6">
-        <v>0.01565524174014171</v>
+        <v>0.004154625699540062</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>369.083199</v>
       </c>
       <c r="I7">
-        <v>0.7048490234326754</v>
+        <v>0.663783921437469</v>
       </c>
       <c r="J7">
-        <v>0.7048490234326754</v>
+        <v>0.6637839214374691</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N7">
         <v>264.449356</v>
       </c>
       <c r="O7">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P7">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q7">
         <v>10844.86825399665</v>
       </c>
       <c r="R7">
-        <v>97603.81428596986</v>
+        <v>97603.81428596983</v>
       </c>
       <c r="S7">
-        <v>0.5108572215025989</v>
+        <v>0.4922702343604578</v>
       </c>
       <c r="T7">
-        <v>0.5108572215025989</v>
+        <v>0.4922702343604579</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>369.083199</v>
       </c>
       <c r="I8">
-        <v>0.7048490234326754</v>
+        <v>0.663783921437469</v>
       </c>
       <c r="J8">
-        <v>0.7048490234326754</v>
+        <v>0.6637839214374691</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N8">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O8">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P8">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q8">
-        <v>3756.260886028771</v>
+        <v>3662.363290565311</v>
       </c>
       <c r="R8">
-        <v>33806.34797425893</v>
+        <v>32961.2696150878</v>
       </c>
       <c r="S8">
-        <v>0.1769420295878996</v>
+        <v>0.166241985899212</v>
       </c>
       <c r="T8">
-        <v>0.1769420295878996</v>
+        <v>0.1662419858992121</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>369.083199</v>
       </c>
       <c r="I9">
-        <v>0.7048490234326754</v>
+        <v>0.663783921437469</v>
       </c>
       <c r="J9">
-        <v>0.7048490234326754</v>
+        <v>0.6637839214374691</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N9">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O9">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P9">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q9">
-        <v>29.60416339179</v>
+        <v>24.60952449670034</v>
       </c>
       <c r="R9">
-        <v>266.43747052611</v>
+        <v>221.485720470303</v>
       </c>
       <c r="S9">
-        <v>0.001394530602035238</v>
+        <v>0.001117075478259088</v>
       </c>
       <c r="T9">
-        <v>0.001394530602035238</v>
+        <v>0.001117075478259088</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>49.488374</v>
+        <v>55.79038633333334</v>
       </c>
       <c r="H10">
-        <v>148.465122</v>
+        <v>167.371159</v>
       </c>
       <c r="I10">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="J10">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N10">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O10">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P10">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q10">
-        <v>133.685617058396</v>
+        <v>41.50581581654667</v>
       </c>
       <c r="R10">
-        <v>1203.170553525564</v>
+        <v>373.55234234892</v>
       </c>
       <c r="S10">
-        <v>0.006297380593825488</v>
+        <v>0.001884031894237499</v>
       </c>
       <c r="T10">
-        <v>0.006297380593825488</v>
+        <v>0.0018840318942375</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>49.488374</v>
+        <v>55.79038633333334</v>
       </c>
       <c r="H11">
-        <v>148.465122</v>
+        <v>167.371159</v>
       </c>
       <c r="I11">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="J11">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N11">
         <v>264.449356</v>
       </c>
       <c r="O11">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P11">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q11">
-        <v>4362.389544595715</v>
+        <v>4917.910578947067</v>
       </c>
       <c r="R11">
-        <v>39261.50590136144</v>
+        <v>44261.1952105236</v>
       </c>
       <c r="S11">
-        <v>0.2054942623247512</v>
+        <v>0.2232337854699029</v>
       </c>
       <c r="T11">
-        <v>0.2054942623247512</v>
+        <v>0.2232337854699029</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>49.488374</v>
+        <v>55.79038633333334</v>
       </c>
       <c r="H12">
-        <v>148.465122</v>
+        <v>167.371159</v>
       </c>
       <c r="I12">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="J12">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N12">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O12">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P12">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q12">
-        <v>1510.970242533553</v>
+        <v>1660.801657408876</v>
       </c>
       <c r="R12">
-        <v>13598.73218280197</v>
+        <v>14947.21491667988</v>
       </c>
       <c r="S12">
-        <v>0.07117560506918419</v>
+        <v>0.07538710493948218</v>
       </c>
       <c r="T12">
-        <v>0.07117560506918419</v>
+        <v>0.07538710493948218</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>49.488374</v>
+        <v>55.79038633333334</v>
       </c>
       <c r="H13">
-        <v>148.465122</v>
+        <v>167.371159</v>
       </c>
       <c r="I13">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="J13">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N13">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O13">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P13">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q13">
-        <v>11.90838743562</v>
+        <v>11.15988115582478</v>
       </c>
       <c r="R13">
-        <v>107.17548692058</v>
+        <v>100.438930402423</v>
       </c>
       <c r="S13">
-        <v>0.0005609552440340019</v>
+        <v>0.000506569299261717</v>
       </c>
       <c r="T13">
-        <v>0.0005609552440340019</v>
+        <v>0.0005065692992617171</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.037411</v>
+        <v>0.07517133333333333</v>
       </c>
       <c r="H14">
-        <v>0.112233</v>
+        <v>0.225514</v>
       </c>
       <c r="I14">
-        <v>0.0002143346558750279</v>
+        <v>0.0004055794673521549</v>
       </c>
       <c r="J14">
-        <v>0.0002143346558750279</v>
+        <v>0.000405579467352155</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N14">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O14">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P14">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q14">
-        <v>0.101060354494</v>
+        <v>0.05592446514666666</v>
       </c>
       <c r="R14">
-        <v>0.9095431904459998</v>
+        <v>0.50332018632</v>
       </c>
       <c r="S14">
-        <v>4.760538412428045E-06</v>
+        <v>2.538523190826893E-06</v>
       </c>
       <c r="T14">
-        <v>4.760538412428045E-06</v>
+        <v>2.538523190826894E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.037411</v>
+        <v>0.07517133333333333</v>
       </c>
       <c r="H15">
-        <v>0.112233</v>
+        <v>0.225514</v>
       </c>
       <c r="I15">
-        <v>0.0002143346558750279</v>
+        <v>0.0004055794673521549</v>
       </c>
       <c r="J15">
-        <v>0.0002143346558750279</v>
+        <v>0.000405579467352155</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N15">
         <v>264.449356</v>
       </c>
       <c r="O15">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P15">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q15">
-        <v>3.297771619105334</v>
+        <v>6.626336896553776</v>
       </c>
       <c r="R15">
-        <v>29.679944571948</v>
+        <v>59.63703206898399</v>
       </c>
       <c r="S15">
-        <v>0.0001553444824804967</v>
+        <v>0.0003007826688734328</v>
       </c>
       <c r="T15">
-        <v>0.0001553444824804967</v>
+        <v>0.0003007826688734328</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.037411</v>
+        <v>0.07517133333333333</v>
       </c>
       <c r="H16">
-        <v>0.112233</v>
+        <v>0.225514</v>
       </c>
       <c r="I16">
-        <v>0.0002143346558750279</v>
+        <v>0.0004055794673521549</v>
       </c>
       <c r="J16">
-        <v>0.0002143346558750279</v>
+        <v>0.000405579467352155</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N16">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O16">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P16">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q16">
-        <v>1.142226005312333</v>
+        <v>2.237745303352444</v>
       </c>
       <c r="R16">
-        <v>10.280034047811</v>
+        <v>20.139707730172</v>
       </c>
       <c r="S16">
-        <v>5.380557787659884E-05</v>
+        <v>0.0001015757295635527</v>
       </c>
       <c r="T16">
-        <v>5.380557787659884E-05</v>
+        <v>0.0001015757295635527</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.037411</v>
+        <v>0.07517133333333333</v>
       </c>
       <c r="H17">
-        <v>0.112233</v>
+        <v>0.225514</v>
       </c>
       <c r="I17">
-        <v>0.0002143346558750279</v>
+        <v>0.0004055794673521549</v>
       </c>
       <c r="J17">
-        <v>0.0002143346558750279</v>
+        <v>0.000405579467352155</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N17">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O17">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P17">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q17">
-        <v>0.00900220893</v>
+        <v>0.01503669720644444</v>
       </c>
       <c r="R17">
-        <v>0.08101988037000001</v>
+        <v>0.135330274858</v>
       </c>
       <c r="S17">
-        <v>4.240571055043362E-07</v>
+        <v>6.825457243425483E-07</v>
       </c>
       <c r="T17">
-        <v>4.240571055043362E-07</v>
+        <v>6.825457243425485E-07</v>
       </c>
     </row>
   </sheetData>
